--- a/DASH.xlsx
+++ b/DASH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CAB13C-6C20-4547-8A49-7E05850BB8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB47C0C-92AF-4AEC-B180-F5A912D5567D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{9EBE0395-CACA-45E2-8D62-749890AA72DC}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{9EBE0395-CACA-45E2-8D62-749890AA72DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>DoorDash</t>
   </si>
@@ -158,6 +158,30 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US </t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Total Orders</t>
+  </si>
+  <si>
+    <t>Marketplace GOV</t>
+  </si>
 </sst>
 </file>
 
@@ -167,13 +191,19 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -230,20 +260,27 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -582,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0E1087-3755-448A-985F-83E35243D33D}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -607,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="2">
-        <v>172.39</v>
+        <v>267.60000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -618,11 +655,11 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <f>388.981171+26.415068</f>
-        <v>415.39623900000004</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
+        <f>402.361247+24.833585</f>
+        <v>427.19483200000002</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -634,7 +671,7 @@
       </c>
       <c r="G5" s="4">
         <f>G3*G4</f>
-        <v>71610.157641209997</v>
+        <v>114317.33704320001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -642,11 +679,11 @@
         <v>7</v>
       </c>
       <c r="G6" s="4">
-        <f>2656+1422</f>
-        <v>4078</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>17</v>
+        <f>3911+1088</f>
+        <v>4999</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -654,10 +691,10 @@
         <v>8</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>17</v>
+        <v>2721</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -666,7 +703,7 @@
       </c>
       <c r="G8" s="4">
         <f>G5-G6</f>
-        <v>67532.157641209997</v>
+        <v>109318.33704320001</v>
       </c>
     </row>
   </sheetData>
@@ -679,13 +716,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4A0EDF-C206-49B4-AF0E-C78FEFDA87AF}">
-  <dimension ref="A1:AG293"/>
+  <dimension ref="A1:CM298"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -695,12 +732,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
@@ -725,24 +762,41 @@
       <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="K2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4">
-        <v>2706</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
-        <v>2164</v>
-      </c>
+      <c r="G3" s="4">
+        <v>620</v>
+      </c>
+      <c r="H3" s="4">
+        <v>635</v>
+      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="4">
+        <v>732</v>
+      </c>
+      <c r="L3" s="4">
+        <v>761</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -764,24 +818,87 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+      <c r="CA3" s="4"/>
+      <c r="CB3" s="4"/>
+      <c r="CC3" s="4"/>
+      <c r="CD3" s="4"/>
+      <c r="CE3" s="4"/>
+      <c r="CF3" s="4"/>
+      <c r="CG3" s="4"/>
+      <c r="CH3" s="4"/>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="4"/>
+      <c r="CM3" s="4"/>
+    </row>
+    <row r="4" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4">
-        <v>1374</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
-        <v>1156</v>
-      </c>
+      <c r="G4" s="4">
+        <v>19239</v>
+      </c>
+      <c r="H4" s="4">
+        <v>19711</v>
+      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="4">
+        <v>23076</v>
+      </c>
+      <c r="L4" s="4">
+        <v>24244</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -803,43 +920,74 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" ref="C5:H5" si="0">+C3-C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>1332</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <f>+I3-I4</f>
-        <v>1008</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" ref="J5" si="1">+J3-J4</f>
-        <v>0</v>
-      </c>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
+      <c r="CH4" s="4"/>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4"/>
+      <c r="CM4" s="4"/>
+    </row>
+    <row r="5" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -863,24 +1011,87 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4"/>
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="4"/>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="4"/>
+      <c r="CM5" s="4"/>
+    </row>
+    <row r="6" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>483</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
-        <v>449</v>
-      </c>
+      <c r="G6" s="4">
+        <v>2222</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2318</v>
+      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="4">
+        <v>2656</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2829</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -902,24 +1113,87 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="4"/>
+      <c r="BT6" s="4"/>
+      <c r="BU6" s="4"/>
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4"/>
+      <c r="CE6" s="4"/>
+      <c r="CF6" s="4"/>
+      <c r="CG6" s="4"/>
+      <c r="CH6" s="4"/>
+      <c r="CI6" s="4"/>
+      <c r="CJ6" s="4"/>
+      <c r="CK6" s="4"/>
+      <c r="CL6" s="4"/>
+      <c r="CM6" s="4"/>
+    </row>
+    <row r="7" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>289</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
-        <v>250</v>
-      </c>
+      <c r="G7" s="4">
+        <v>291</v>
+      </c>
+      <c r="H7" s="4">
+        <v>312</v>
+      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="4">
+        <v>376</v>
+      </c>
+      <c r="L7" s="4">
+        <v>455</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -941,63 +1215,197 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>315</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
-        <v>289</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7" s="4"/>
+      <c r="BR7" s="4"/>
+      <c r="BS7" s="4"/>
+      <c r="BT7" s="4"/>
+      <c r="BU7" s="4"/>
+      <c r="BV7" s="4"/>
+      <c r="BW7" s="4"/>
+      <c r="BX7" s="4"/>
+      <c r="BY7" s="4"/>
+      <c r="BZ7" s="4"/>
+      <c r="CA7" s="4"/>
+      <c r="CB7" s="4"/>
+      <c r="CC7" s="4"/>
+      <c r="CD7" s="4"/>
+      <c r="CE7" s="4"/>
+      <c r="CF7" s="4"/>
+      <c r="CG7" s="4"/>
+      <c r="CH7" s="4"/>
+      <c r="CI7" s="4"/>
+      <c r="CJ7" s="4"/>
+      <c r="CK7" s="4"/>
+      <c r="CL7" s="4"/>
+      <c r="CM7" s="4"/>
+    </row>
+    <row r="8" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
+        <v>2706</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11">
+        <v>2513</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2630</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2164</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11">
+        <v>3032</v>
+      </c>
+      <c r="L8" s="11">
+        <v>3284</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+      <c r="BL8" s="4"/>
+      <c r="BM8" s="4"/>
+      <c r="BN8" s="4"/>
+      <c r="BO8" s="4"/>
+      <c r="BP8" s="4"/>
+      <c r="BQ8" s="4"/>
+      <c r="BR8" s="4"/>
+      <c r="BS8" s="4"/>
+      <c r="BT8" s="4"/>
+      <c r="BU8" s="4"/>
+      <c r="BV8" s="4"/>
+      <c r="BW8" s="4"/>
+      <c r="BX8" s="4"/>
+      <c r="BY8" s="4"/>
+      <c r="BZ8" s="4"/>
+      <c r="CA8" s="4"/>
+      <c r="CB8" s="4"/>
+      <c r="CC8" s="4"/>
+      <c r="CD8" s="4"/>
+      <c r="CE8" s="4"/>
+      <c r="CF8" s="4"/>
+      <c r="CG8" s="4"/>
+      <c r="CH8" s="4"/>
+      <c r="CI8" s="4"/>
+      <c r="CJ8" s="4"/>
+      <c r="CK8" s="4"/>
+      <c r="CL8" s="4"/>
+      <c r="CM8" s="4"/>
+    </row>
+    <row r="9" spans="1:91" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
-        <v>138</v>
+        <v>1374</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="4">
+        <v>1330</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1385</v>
+      </c>
       <c r="I9" s="4">
-        <v>128</v>
+        <v>1156</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1616</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1019,26 +1427,117 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9" s="4"/>
+      <c r="BL9" s="4"/>
+      <c r="BM9" s="4"/>
+      <c r="BN9" s="4"/>
+      <c r="BO9" s="4"/>
+      <c r="BP9" s="4"/>
+      <c r="BQ9" s="4"/>
+      <c r="BR9" s="4"/>
+      <c r="BS9" s="4"/>
+      <c r="BT9" s="4"/>
+      <c r="BU9" s="4"/>
+      <c r="BV9" s="4"/>
+      <c r="BW9" s="4"/>
+      <c r="BX9" s="4"/>
+      <c r="BY9" s="4"/>
+      <c r="BZ9" s="4"/>
+      <c r="CA9" s="4"/>
+      <c r="CB9" s="4"/>
+      <c r="CC9" s="4"/>
+      <c r="CD9" s="4"/>
+      <c r="CE9" s="4"/>
+      <c r="CF9" s="4"/>
+      <c r="CG9" s="4"/>
+      <c r="CH9" s="4"/>
+      <c r="CI9" s="4"/>
+      <c r="CJ9" s="4"/>
+      <c r="CK9" s="4"/>
+      <c r="CL9" s="4"/>
+      <c r="CM9" s="4"/>
+    </row>
+    <row r="10" spans="1:91" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" ref="C10:H10" si="0">+C8-C9</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>1332</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>1183</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>1245</v>
+      </c>
       <c r="I10" s="4">
+        <f>+I8-I9</f>
+        <v>1008</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" ref="J10:N10" si="1">+J8-J9</f>
         <v>0</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>1532</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>1668</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1058,45 +1557,91 @@
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
+      <c r="BL10" s="4"/>
+      <c r="BM10" s="4"/>
+      <c r="BN10" s="4"/>
+      <c r="BO10" s="4"/>
+      <c r="BP10" s="4"/>
+      <c r="BQ10" s="4"/>
+      <c r="BR10" s="4"/>
+      <c r="BS10" s="4"/>
+      <c r="BT10" s="4"/>
+      <c r="BU10" s="4"/>
+      <c r="BV10" s="4"/>
+      <c r="BW10" s="4"/>
+      <c r="BX10" s="4"/>
+      <c r="BY10" s="4"/>
+      <c r="BZ10" s="4"/>
+      <c r="CA10" s="4"/>
+      <c r="CB10" s="4"/>
+      <c r="CC10" s="4"/>
+      <c r="CD10" s="4"/>
+      <c r="CE10" s="4"/>
+      <c r="CF10" s="4"/>
+      <c r="CG10" s="4"/>
+      <c r="CH10" s="4"/>
+      <c r="CI10" s="4"/>
+      <c r="CJ10" s="4"/>
+      <c r="CK10" s="4"/>
+      <c r="CL10" s="4"/>
+      <c r="CM10" s="4"/>
+    </row>
+    <row r="11" spans="1:91" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" ref="C11:H11" si="2">+C5-SUM(C6:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="4">
-        <f t="shared" si="2"/>
-        <v>107</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="I11" s="4">
-        <f>+I5-SUM(I6:I10)</f>
-        <v>-108</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" ref="J11" si="3">+J5-SUM(J6:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+        <v>449</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <v>586</v>
+      </c>
+      <c r="L11" s="4">
+        <v>607</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1118,24 +1663,91 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
+      <c r="BK11" s="4"/>
+      <c r="BL11" s="4"/>
+      <c r="BM11" s="4"/>
+      <c r="BN11" s="4"/>
+      <c r="BO11" s="4"/>
+      <c r="BP11" s="4"/>
+      <c r="BQ11" s="4"/>
+      <c r="BR11" s="4"/>
+      <c r="BS11" s="4"/>
+      <c r="BT11" s="4"/>
+      <c r="BU11" s="4"/>
+      <c r="BV11" s="4"/>
+      <c r="BW11" s="4"/>
+      <c r="BX11" s="4"/>
+      <c r="BY11" s="4"/>
+      <c r="BZ11" s="4"/>
+      <c r="CA11" s="4"/>
+      <c r="CB11" s="4"/>
+      <c r="CC11" s="4"/>
+      <c r="CD11" s="4"/>
+      <c r="CE11" s="4"/>
+      <c r="CF11" s="4"/>
+      <c r="CG11" s="4"/>
+      <c r="CH11" s="4"/>
+      <c r="CI11" s="4"/>
+      <c r="CJ11" s="4"/>
+      <c r="CK11" s="4"/>
+      <c r="CL11" s="4"/>
+      <c r="CM11" s="4"/>
+    </row>
+    <row r="12" spans="1:91" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
-        <v>54</v>
+        <v>289</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="4">
+        <v>279</v>
+      </c>
+      <c r="H12" s="4">
+        <v>303</v>
+      </c>
       <c r="I12" s="4">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="K12" s="4">
+        <v>306</v>
+      </c>
+      <c r="L12" s="4">
+        <v>351</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1157,24 +1769,91 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="4"/>
+      <c r="BK12" s="4"/>
+      <c r="BL12" s="4"/>
+      <c r="BM12" s="4"/>
+      <c r="BN12" s="4"/>
+      <c r="BO12" s="4"/>
+      <c r="BP12" s="4"/>
+      <c r="BQ12" s="4"/>
+      <c r="BR12" s="4"/>
+      <c r="BS12" s="4"/>
+      <c r="BT12" s="4"/>
+      <c r="BU12" s="4"/>
+      <c r="BV12" s="4"/>
+      <c r="BW12" s="4"/>
+      <c r="BX12" s="4"/>
+      <c r="BY12" s="4"/>
+      <c r="BZ12" s="4"/>
+      <c r="CA12" s="4"/>
+      <c r="CB12" s="4"/>
+      <c r="CC12" s="4"/>
+      <c r="CD12" s="4"/>
+      <c r="CE12" s="4"/>
+      <c r="CF12" s="4"/>
+      <c r="CG12" s="4"/>
+      <c r="CH12" s="4"/>
+      <c r="CI12" s="4"/>
+      <c r="CJ12" s="4"/>
+      <c r="CK12" s="4"/>
+      <c r="CL12" s="4"/>
+      <c r="CM12" s="4"/>
+    </row>
+    <row r="13" spans="1:91" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
-        <v>-6</v>
+        <v>315</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="4">
+        <v>319</v>
+      </c>
+      <c r="H13" s="4">
+        <v>494</v>
+      </c>
       <c r="I13" s="4">
-        <v>-1</v>
+        <v>289</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="4">
+        <v>332</v>
+      </c>
+      <c r="L13" s="4">
+        <v>388</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1196,45 +1875,91 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BL13" s="4"/>
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4"/>
+      <c r="BO13" s="4"/>
+      <c r="BP13" s="4"/>
+      <c r="BQ13" s="4"/>
+      <c r="BR13" s="4"/>
+      <c r="BS13" s="4"/>
+      <c r="BT13" s="4"/>
+      <c r="BU13" s="4"/>
+      <c r="BV13" s="4"/>
+      <c r="BW13" s="4"/>
+      <c r="BX13" s="4"/>
+      <c r="BY13" s="4"/>
+      <c r="BZ13" s="4"/>
+      <c r="CA13" s="4"/>
+      <c r="CB13" s="4"/>
+      <c r="CC13" s="4"/>
+      <c r="CD13" s="4"/>
+      <c r="CE13" s="4"/>
+      <c r="CF13" s="4"/>
+      <c r="CG13" s="4"/>
+      <c r="CH13" s="4"/>
+      <c r="CI13" s="4"/>
+      <c r="CJ13" s="4"/>
+      <c r="CK13" s="4"/>
+      <c r="CL13" s="4"/>
+      <c r="CM13" s="4"/>
+    </row>
+    <row r="14" spans="1:91" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" ref="C14:H14" si="4">+C11+C12+C13</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4">
-        <f t="shared" si="4"/>
-        <v>155</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I14" s="4">
-        <f>+I11+I12+I13</f>
-        <v>-69</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" ref="J14" si="5">+J11+J12+J13</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <v>152</v>
+      </c>
+      <c r="L14" s="4">
+        <v>159</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1256,24 +1981,91 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4"/>
+      <c r="BP14" s="4"/>
+      <c r="BQ14" s="4"/>
+      <c r="BR14" s="4"/>
+      <c r="BS14" s="4"/>
+      <c r="BT14" s="4"/>
+      <c r="BU14" s="4"/>
+      <c r="BV14" s="4"/>
+      <c r="BW14" s="4"/>
+      <c r="BX14" s="4"/>
+      <c r="BY14" s="4"/>
+      <c r="BZ14" s="4"/>
+      <c r="CA14" s="4"/>
+      <c r="CB14" s="4"/>
+      <c r="CC14" s="4"/>
+      <c r="CD14" s="4"/>
+      <c r="CE14" s="4"/>
+      <c r="CF14" s="4"/>
+      <c r="CG14" s="4"/>
+      <c r="CH14" s="4"/>
+      <c r="CI14" s="4"/>
+      <c r="CJ14" s="4"/>
+      <c r="CK14" s="4"/>
+      <c r="CL14" s="4"/>
+      <c r="CM14" s="4"/>
+    </row>
+    <row r="15" spans="1:91" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
       <c r="I15" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1295,47 +2087,117 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="4"/>
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4"/>
+      <c r="BO15" s="4"/>
+      <c r="BP15" s="4"/>
+      <c r="BQ15" s="4"/>
+      <c r="BR15" s="4"/>
+      <c r="BS15" s="4"/>
+      <c r="BT15" s="4"/>
+      <c r="BU15" s="4"/>
+      <c r="BV15" s="4"/>
+      <c r="BW15" s="4"/>
+      <c r="BX15" s="4"/>
+      <c r="BY15" s="4"/>
+      <c r="BZ15" s="4"/>
+      <c r="CA15" s="4"/>
+      <c r="CB15" s="4"/>
+      <c r="CC15" s="4"/>
+      <c r="CD15" s="4"/>
+      <c r="CE15" s="4"/>
+      <c r="CF15" s="4"/>
+      <c r="CG15" s="4"/>
+      <c r="CH15" s="4"/>
+      <c r="CI15" s="4"/>
+      <c r="CJ15" s="4"/>
+      <c r="CK15" s="4"/>
+      <c r="CL15" s="4"/>
+      <c r="CM15" s="4"/>
+    </row>
+    <row r="16" spans="1:91" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ref="C16:H16" si="6">+C14-C15</f>
+        <f t="shared" ref="C16:H16" si="2">+C10-SUM(C11:C15)</f>
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="6"/>
-        <v>161</v>
+        <f t="shared" si="2"/>
+        <v>107</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
+        <v>-61</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="2"/>
+        <v>-201</v>
+      </c>
+      <c r="I16" s="4">
+        <f>+I10-SUM(I11:I15)</f>
+        <v>-108</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" ref="J16:N16" si="3">+J10-SUM(J11:J15)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="4">
-        <f t="shared" si="6"/>
+      <c r="K16" s="4">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I16" s="4">
-        <f>+I14-I15</f>
-        <v>-75</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" ref="J16" si="7">+J14-J15</f>
+      <c r="N16" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1355,24 +2217,91 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="4"/>
+      <c r="BL16" s="4"/>
+      <c r="BM16" s="4"/>
+      <c r="BN16" s="4"/>
+      <c r="BO16" s="4"/>
+      <c r="BP16" s="4"/>
+      <c r="BQ16" s="4"/>
+      <c r="BR16" s="4"/>
+      <c r="BS16" s="4"/>
+      <c r="BT16" s="4"/>
+      <c r="BU16" s="4"/>
+      <c r="BV16" s="4"/>
+      <c r="BW16" s="4"/>
+      <c r="BX16" s="4"/>
+      <c r="BY16" s="4"/>
+      <c r="BZ16" s="4"/>
+      <c r="CA16" s="4"/>
+      <c r="CB16" s="4"/>
+      <c r="CC16" s="4"/>
+      <c r="CD16" s="4"/>
+      <c r="CE16" s="4"/>
+      <c r="CF16" s="4"/>
+      <c r="CG16" s="4"/>
+      <c r="CH16" s="4"/>
+      <c r="CI16" s="4"/>
+      <c r="CJ16" s="4"/>
+      <c r="CK16" s="4"/>
+      <c r="CL16" s="4"/>
+      <c r="CM16" s="4"/>
+    </row>
+    <row r="17" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="4">
+        <v>45</v>
+      </c>
+      <c r="H17" s="4">
+        <v>49</v>
+      </c>
       <c r="I17" s="4">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="4">
+        <v>49</v>
+      </c>
+      <c r="L17" s="4">
+        <v>49</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1394,45 +2323,91 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+      <c r="BL17" s="4"/>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4"/>
+      <c r="BO17" s="4"/>
+      <c r="BP17" s="4"/>
+      <c r="BQ17" s="4"/>
+      <c r="BR17" s="4"/>
+      <c r="BS17" s="4"/>
+      <c r="BT17" s="4"/>
+      <c r="BU17" s="4"/>
+      <c r="BV17" s="4"/>
+      <c r="BW17" s="4"/>
+      <c r="BX17" s="4"/>
+      <c r="BY17" s="4"/>
+      <c r="BZ17" s="4"/>
+      <c r="CA17" s="4"/>
+      <c r="CB17" s="4"/>
+      <c r="CC17" s="4"/>
+      <c r="CD17" s="4"/>
+      <c r="CE17" s="4"/>
+      <c r="CF17" s="4"/>
+      <c r="CG17" s="4"/>
+      <c r="CH17" s="4"/>
+      <c r="CI17" s="4"/>
+      <c r="CJ17" s="4"/>
+      <c r="CK17" s="4"/>
+      <c r="CL17" s="4"/>
+      <c r="CM17" s="4"/>
+    </row>
+    <row r="18" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" ref="C18:H18" si="8">+C16+C17</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4">
-        <f t="shared" si="8"/>
-        <v>162</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+        <v>-6</v>
+      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="I18" s="4">
-        <f>+I16+I17</f>
-        <v>-73</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" ref="J18" si="9">+J16+J17</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+        <v>-1</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
+        <v>-6</v>
+      </c>
+      <c r="L18" s="4">
+        <v>59</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1454,19 +2429,117 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+      <c r="BL18" s="4"/>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="4"/>
+      <c r="BO18" s="4"/>
+      <c r="BP18" s="4"/>
+      <c r="BQ18" s="4"/>
+      <c r="BR18" s="4"/>
+      <c r="BS18" s="4"/>
+      <c r="BT18" s="4"/>
+      <c r="BU18" s="4"/>
+      <c r="BV18" s="4"/>
+      <c r="BW18" s="4"/>
+      <c r="BX18" s="4"/>
+      <c r="BY18" s="4"/>
+      <c r="BZ18" s="4"/>
+      <c r="CA18" s="4"/>
+      <c r="CB18" s="4"/>
+      <c r="CC18" s="4"/>
+      <c r="CD18" s="4"/>
+      <c r="CE18" s="4"/>
+      <c r="CF18" s="4"/>
+      <c r="CG18" s="4"/>
+      <c r="CH18" s="4"/>
+      <c r="CI18" s="4"/>
+      <c r="CJ18" s="4"/>
+      <c r="CK18" s="4"/>
+      <c r="CL18" s="4"/>
+      <c r="CM18" s="4"/>
+    </row>
+    <row r="19" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ref="C19:H19" si="4">+C16+C17+C18</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="4"/>
+        <v>-18</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="4"/>
+        <v>-157</v>
+      </c>
+      <c r="I19" s="4">
+        <f>+I16+I17+I18</f>
+        <v>-69</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" ref="J19:N19" si="5">+J16+J17+J18</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="5"/>
+        <v>198</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="5"/>
+        <v>271</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1486,45 +2559,91 @@
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
+      <c r="BL19" s="4"/>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4"/>
+      <c r="BO19" s="4"/>
+      <c r="BP19" s="4"/>
+      <c r="BQ19" s="4"/>
+      <c r="BR19" s="4"/>
+      <c r="BS19" s="4"/>
+      <c r="BT19" s="4"/>
+      <c r="BU19" s="4"/>
+      <c r="BV19" s="4"/>
+      <c r="BW19" s="4"/>
+      <c r="BX19" s="4"/>
+      <c r="BY19" s="4"/>
+      <c r="BZ19" s="4"/>
+      <c r="CA19" s="4"/>
+      <c r="CB19" s="4"/>
+      <c r="CC19" s="4"/>
+      <c r="CD19" s="4"/>
+      <c r="CE19" s="4"/>
+      <c r="CF19" s="4"/>
+      <c r="CG19" s="4"/>
+      <c r="CH19" s="4"/>
+      <c r="CI19" s="4"/>
+      <c r="CJ19" s="4"/>
+      <c r="CK19" s="4"/>
+      <c r="CL19" s="4"/>
+      <c r="CM19" s="4"/>
+    </row>
+    <row r="20" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="6" t="e">
-        <f t="shared" ref="C20:H20" si="10">+C18/C21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="6" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="10"/>
-        <v>0.39215116701282482</v>
-      </c>
-      <c r="F20" s="6" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="6" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="6" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="6">
-        <f>+I18/I21</f>
-        <v>-0.18564812813281217</v>
-      </c>
-      <c r="J20" s="6" t="e">
-        <f t="shared" ref="J20" si="11">+J18/J21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <v>-6</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>6</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
+        <v>6</v>
+      </c>
+      <c r="L20" s="4">
+        <v>-13</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1546,26 +2665,117 @@
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+      <c r="BF20" s="4"/>
+      <c r="BG20" s="4"/>
+      <c r="BH20" s="4"/>
+      <c r="BI20" s="4"/>
+      <c r="BJ20" s="4"/>
+      <c r="BK20" s="4"/>
+      <c r="BL20" s="4"/>
+      <c r="BM20" s="4"/>
+      <c r="BN20" s="4"/>
+      <c r="BO20" s="4"/>
+      <c r="BP20" s="4"/>
+      <c r="BQ20" s="4"/>
+      <c r="BR20" s="4"/>
+      <c r="BS20" s="4"/>
+      <c r="BT20" s="4"/>
+      <c r="BU20" s="4"/>
+      <c r="BV20" s="4"/>
+      <c r="BW20" s="4"/>
+      <c r="BX20" s="4"/>
+      <c r="BY20" s="4"/>
+      <c r="BZ20" s="4"/>
+      <c r="CA20" s="4"/>
+      <c r="CB20" s="4"/>
+      <c r="CC20" s="4"/>
+      <c r="CD20" s="4"/>
+      <c r="CE20" s="4"/>
+      <c r="CF20" s="4"/>
+      <c r="CG20" s="4"/>
+      <c r="CH20" s="4"/>
+      <c r="CI20" s="4"/>
+      <c r="CJ20" s="4"/>
+      <c r="CK20" s="4"/>
+      <c r="CL20" s="4"/>
+      <c r="CM20" s="4"/>
+    </row>
+    <row r="21" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21:H21" si="6">+C19-C20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="E21" s="4">
-        <v>413.10599999999999</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+        <f t="shared" si="6"/>
+        <v>161</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="6"/>
+        <v>-25</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="6"/>
+        <v>-158</v>
+      </c>
       <c r="I21" s="4">
-        <v>393.21699999999998</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+        <f>+I19-I20</f>
+        <v>-75</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" ref="J21:N21" si="7">+J19-J20</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="7"/>
+        <v>192</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="7"/>
+        <v>284</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -1586,16 +2796,31 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="K22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>-1</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1618,33 +2843,58 @@
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="7" t="e">
-        <f t="shared" ref="G23:I23" si="12">+G3/C3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="7">
-        <f t="shared" si="12"/>
-        <v>-0.20029563932002958</v>
-      </c>
-      <c r="J23" s="7" t="e">
-        <f>+J3/F3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" ref="C23:H23" si="8">+C21+C22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="8"/>
+        <v>162</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="8"/>
+        <v>-23</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="8"/>
+        <v>-159</v>
+      </c>
+      <c r="I23" s="4">
+        <f>+I21+I22</f>
+        <v>-73</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" ref="J23:N23" si="9">+J21+J22</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="9"/>
+        <v>191</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="9"/>
+        <v>283</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -1665,42 +2915,14 @@
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="7" t="e">
-        <f t="shared" ref="C24:I24" si="13">+C5/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="7">
-        <f t="shared" si="13"/>
-        <v>0.49223946784922396</v>
-      </c>
-      <c r="F24" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="7" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="7">
-        <f t="shared" si="13"/>
-        <v>0.46580406654343809</v>
-      </c>
-      <c r="J24" s="7" t="e">
-        <f>+J5/J3</f>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="24" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -1725,46 +2947,58 @@
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="7" t="e">
-        <f t="shared" ref="C25:I25" si="14">+C11/C3</f>
+        <v>35</v>
+      </c>
+      <c r="C25" s="6" t="e">
+        <f t="shared" ref="C25:H25" si="10">+C23/C26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="7" t="e">
-        <f t="shared" si="14"/>
+      <c r="D25" s="6" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="7">
-        <f t="shared" si="14"/>
-        <v>3.9541759053954177E-2</v>
-      </c>
-      <c r="F25" s="7" t="e">
-        <f t="shared" si="14"/>
+      <c r="E25" s="6">
+        <f t="shared" si="10"/>
+        <v>0.39215116701282482</v>
+      </c>
+      <c r="F25" s="6" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="7" t="e">
-        <f t="shared" si="14"/>
+      <c r="G25" s="6">
+        <f t="shared" si="10"/>
+        <v>-5.6722616540314977E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="10"/>
+        <v>-0.38734950619028358</v>
+      </c>
+      <c r="I25" s="6">
+        <f>+I23/I26</f>
+        <v>-0.18564812813281217</v>
+      </c>
+      <c r="J25" s="6" t="e">
+        <f t="shared" ref="J25:N25" si="11">+J23/J26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="7" t="e">
-        <f t="shared" si="14"/>
+      <c r="K25" s="6">
+        <f t="shared" si="11"/>
+        <v>0.45322740625786029</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="11"/>
+        <v>0.66570535363538641</v>
+      </c>
+      <c r="M25" s="6" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="7">
-        <f t="shared" si="14"/>
-        <v>-4.9907578558225509E-2</v>
-      </c>
-      <c r="J25" s="7" t="e">
-        <f>+J11/J3</f>
+      <c r="N25" s="6" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -1785,44 +3019,31 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="7" t="e">
-        <f t="shared" ref="C26:I26" si="15">+C15/C14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="7">
-        <f t="shared" si="15"/>
-        <v>-3.870967741935484E-2</v>
-      </c>
-      <c r="F26" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="7">
-        <f t="shared" si="15"/>
-        <v>-8.6956521739130432E-2</v>
-      </c>
-      <c r="J26" s="7" t="e">
-        <f>+J15/J14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4">
+        <v>413.10599999999999</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="10">
+        <v>405.48200000000003</v>
+      </c>
+      <c r="H26" s="4">
+        <v>410.48200000000003</v>
+      </c>
+      <c r="I26" s="4">
+        <v>393.21699999999998</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4">
+        <v>421.42200000000003</v>
+      </c>
+      <c r="L26" s="4">
+        <v>425.113</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -1845,7 +3066,7 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:91" x14ac:dyDescent="0.2">
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1877,50 +3098,117 @@
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+    <row r="28" spans="2:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12" t="e">
+        <f t="shared" ref="G28:I28" si="12">+G8/C8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" si="12"/>
+        <v>-0.20029563932002958</v>
+      </c>
+      <c r="J28" s="12" t="e">
+        <f>+J8/F8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" ref="K28:N28" si="13">+K8/G8-1</f>
+        <v>0.20652606446478305</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="13"/>
+        <v>0.24866920152091265</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="N28" s="12" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+    </row>
+    <row r="29" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="7" t="e">
+        <f t="shared" ref="C29:I29" si="14">+C10/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="14"/>
+        <v>0.49223946784922396</v>
+      </c>
+      <c r="F29" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="14"/>
+        <v>0.47075208913649025</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="14"/>
+        <v>0.47338403041825095</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="14"/>
+        <v>0.46580406654343809</v>
+      </c>
+      <c r="J29" s="7" t="e">
+        <f>+J10/J8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="7">
+        <f t="shared" ref="K29:N29" si="15">+K10/K8</f>
+        <v>0.50527704485488123</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="15"/>
+        <v>0.50791717417783189</v>
+      </c>
+      <c r="M29" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -1941,18 +3229,58 @@
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+    <row r="30" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="7" t="e">
+        <f t="shared" ref="C30:I30" si="16">+C16/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="16"/>
+        <v>3.9541759053954177E-2</v>
+      </c>
+      <c r="F30" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="16"/>
+        <v>-2.4273776362912853E-2</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="16"/>
+        <v>-7.642585551330798E-2</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="16"/>
+        <v>-4.9907578558225509E-2</v>
+      </c>
+      <c r="J30" s="7" t="e">
+        <f>+J16/J8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="7">
+        <f t="shared" ref="K30:N30" si="17">+K16/K8</f>
+        <v>5.1121372031662268E-2</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="17"/>
+        <v>4.9634591961023142E-2</v>
+      </c>
+      <c r="M30" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -1973,18 +3301,58 @@
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+    <row r="31" spans="2:91" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="7" t="e">
+        <f t="shared" ref="C31:I31" si="18">+C20/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="18"/>
+        <v>-3.870967741935484E-2</v>
+      </c>
+      <c r="F31" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="18"/>
+        <v>-0.3888888888888889</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="18"/>
+        <v>-6.369426751592357E-3</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="18"/>
+        <v>-8.6956521739130432E-2</v>
+      </c>
+      <c r="J31" s="7" t="e">
+        <f>+J20/J19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="7">
+        <f t="shared" ref="K31:N31" si="19">+K20/K19</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="19"/>
+        <v>-4.797047970479705E-2</v>
+      </c>
+      <c r="M31" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -2005,7 +3373,7 @@
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:91" x14ac:dyDescent="0.2">
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -10389,6 +11757,166 @@
       <c r="AF293" s="4"/>
       <c r="AG293" s="4"/>
     </row>
+    <row r="294" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D294" s="4"/>
+      <c r="E294" s="4"/>
+      <c r="F294" s="4"/>
+      <c r="G294" s="4"/>
+      <c r="H294" s="4"/>
+      <c r="I294" s="4"/>
+      <c r="J294" s="4"/>
+      <c r="K294" s="4"/>
+      <c r="L294" s="4"/>
+      <c r="M294" s="4"/>
+      <c r="N294" s="4"/>
+      <c r="O294" s="4"/>
+      <c r="P294" s="4"/>
+      <c r="Q294" s="4"/>
+      <c r="R294" s="4"/>
+      <c r="S294" s="4"/>
+      <c r="T294" s="4"/>
+      <c r="U294" s="4"/>
+      <c r="V294" s="4"/>
+      <c r="W294" s="4"/>
+      <c r="X294" s="4"/>
+      <c r="Y294" s="4"/>
+      <c r="Z294" s="4"/>
+      <c r="AA294" s="4"/>
+      <c r="AB294" s="4"/>
+      <c r="AC294" s="4"/>
+      <c r="AD294" s="4"/>
+      <c r="AE294" s="4"/>
+      <c r="AF294" s="4"/>
+      <c r="AG294" s="4"/>
+    </row>
+    <row r="295" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D295" s="4"/>
+      <c r="E295" s="4"/>
+      <c r="F295" s="4"/>
+      <c r="G295" s="4"/>
+      <c r="H295" s="4"/>
+      <c r="I295" s="4"/>
+      <c r="J295" s="4"/>
+      <c r="K295" s="4"/>
+      <c r="L295" s="4"/>
+      <c r="M295" s="4"/>
+      <c r="N295" s="4"/>
+      <c r="O295" s="4"/>
+      <c r="P295" s="4"/>
+      <c r="Q295" s="4"/>
+      <c r="R295" s="4"/>
+      <c r="S295" s="4"/>
+      <c r="T295" s="4"/>
+      <c r="U295" s="4"/>
+      <c r="V295" s="4"/>
+      <c r="W295" s="4"/>
+      <c r="X295" s="4"/>
+      <c r="Y295" s="4"/>
+      <c r="Z295" s="4"/>
+      <c r="AA295" s="4"/>
+      <c r="AB295" s="4"/>
+      <c r="AC295" s="4"/>
+      <c r="AD295" s="4"/>
+      <c r="AE295" s="4"/>
+      <c r="AF295" s="4"/>
+      <c r="AG295" s="4"/>
+    </row>
+    <row r="296" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D296" s="4"/>
+      <c r="E296" s="4"/>
+      <c r="F296" s="4"/>
+      <c r="G296" s="4"/>
+      <c r="H296" s="4"/>
+      <c r="I296" s="4"/>
+      <c r="J296" s="4"/>
+      <c r="K296" s="4"/>
+      <c r="L296" s="4"/>
+      <c r="M296" s="4"/>
+      <c r="N296" s="4"/>
+      <c r="O296" s="4"/>
+      <c r="P296" s="4"/>
+      <c r="Q296" s="4"/>
+      <c r="R296" s="4"/>
+      <c r="S296" s="4"/>
+      <c r="T296" s="4"/>
+      <c r="U296" s="4"/>
+      <c r="V296" s="4"/>
+      <c r="W296" s="4"/>
+      <c r="X296" s="4"/>
+      <c r="Y296" s="4"/>
+      <c r="Z296" s="4"/>
+      <c r="AA296" s="4"/>
+      <c r="AB296" s="4"/>
+      <c r="AC296" s="4"/>
+      <c r="AD296" s="4"/>
+      <c r="AE296" s="4"/>
+      <c r="AF296" s="4"/>
+      <c r="AG296" s="4"/>
+    </row>
+    <row r="297" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D297" s="4"/>
+      <c r="E297" s="4"/>
+      <c r="F297" s="4"/>
+      <c r="G297" s="4"/>
+      <c r="H297" s="4"/>
+      <c r="I297" s="4"/>
+      <c r="J297" s="4"/>
+      <c r="K297" s="4"/>
+      <c r="L297" s="4"/>
+      <c r="M297" s="4"/>
+      <c r="N297" s="4"/>
+      <c r="O297" s="4"/>
+      <c r="P297" s="4"/>
+      <c r="Q297" s="4"/>
+      <c r="R297" s="4"/>
+      <c r="S297" s="4"/>
+      <c r="T297" s="4"/>
+      <c r="U297" s="4"/>
+      <c r="V297" s="4"/>
+      <c r="W297" s="4"/>
+      <c r="X297" s="4"/>
+      <c r="Y297" s="4"/>
+      <c r="Z297" s="4"/>
+      <c r="AA297" s="4"/>
+      <c r="AB297" s="4"/>
+      <c r="AC297" s="4"/>
+      <c r="AD297" s="4"/>
+      <c r="AE297" s="4"/>
+      <c r="AF297" s="4"/>
+      <c r="AG297" s="4"/>
+    </row>
+    <row r="298" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D298" s="4"/>
+      <c r="E298" s="4"/>
+      <c r="F298" s="4"/>
+      <c r="G298" s="4"/>
+      <c r="H298" s="4"/>
+      <c r="I298" s="4"/>
+      <c r="J298" s="4"/>
+      <c r="K298" s="4"/>
+      <c r="L298" s="4"/>
+      <c r="M298" s="4"/>
+      <c r="N298" s="4"/>
+      <c r="O298" s="4"/>
+      <c r="P298" s="4"/>
+      <c r="Q298" s="4"/>
+      <c r="R298" s="4"/>
+      <c r="S298" s="4"/>
+      <c r="T298" s="4"/>
+      <c r="U298" s="4"/>
+      <c r="V298" s="4"/>
+      <c r="W298" s="4"/>
+      <c r="X298" s="4"/>
+      <c r="Y298" s="4"/>
+      <c r="Z298" s="4"/>
+      <c r="AA298" s="4"/>
+      <c r="AB298" s="4"/>
+      <c r="AC298" s="4"/>
+      <c r="AD298" s="4"/>
+      <c r="AE298" s="4"/>
+      <c r="AF298" s="4"/>
+      <c r="AG298" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A311200D-FC1D-42FC-AB07-81986398F723}"/>
